--- a/data/processed/emigrationsutredningen_processed.xlsx
+++ b/data/processed/emigrationsutredningen_processed.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -599,6 +599,21 @@
         </is>
       </c>
     </row>
+    <row r="17">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Det medbragta beloppet var dock ej ägnadt att tilldraga sig en sådan uppmärksamhet som den förmögenhet i form af insatta pengar och besuttna fastigheter, ut- 12 EMIGRATIONSUTREDNINGEN. BILAGA VII. UTVANDRARNES UPPGIFTER. vandrarne lämnat kvar, samt de arj’slotter och försäkringssummor, hvilka skulle i sinom tid följa dem från Sverige öfver till Nordamerika. — Det skulle ha sitt intresse att från de svenska lilförsäkringsbolagen erhålla en uppgift om de assuransbelopp, som här utfalla och sändas till svenska emigranter och deras barn på andra sidan Atlanten. 2) Under färden erhöll jag en synnerligt stark bekräftelse på min förut närda öfvertygelse om de utvandrade släktingarnas och vännernas dragningskraft på de hemmavarande. Hvad som öfverträffadé min ditintill hysta uppfattning, var den lifliga förbindelse, i hvilken — exempelvis — härvarande brors- eller systerbarn stå med emigrerade far- eller morbröder, kusiner med kusiner o. s. v. </t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>However, the amount of money brought in was not likely to attract the same attention as the wealth in the form of money deposited and real estate owned, which was 12 THE EMIGRATION COMMITTEE. ANNEX VII. EMIGRANTS' DUTIES. the emigrants have left behind, as well as the annuities and insurance sums which would in due course follow them from Sweden across to North America. - It would be of interest to obtain from the Swedish insurance companies a statement of the sums insured which are paid out here and sent to Swedish emigrants and their children on the other side of the Atlantic. 2) During the journey I received a very strong confirmation of my earlier conviction about the attraction of the emigrated relatives and friends to those at home. What surpassed my hitherto held opinion was the lively relationship in which - for example - nieces and nephews here are connected with emigrated grandfathers or uncles, cousins with cousins and so on.</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
